--- a/igem2017/sdin/tools/preload/additional/year.xlsx
+++ b/igem2017/sdin/tools/preload/additional/year.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有谁共鸣\Desktop\新建文件夹\year\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lixia\LinuxHome\Projects\IGEM2017-SYSU.Software\igem2017\sdin\tools\preload\additional\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4418" windowHeight="1643" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4416" windowHeight="1644" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="year的解释" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="year额外分析" sheetId="3" r:id="rId3"/>
     <sheet name="year推荐project和part" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,9 +29,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="276">
   <si>
-    <t>picture/year/2009</t>
-  </si>
-  <si>
     <t>2009.igem.org/Main_Page</t>
   </si>
   <si>
@@ -39,9 +36,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>picture/year/2010</t>
-  </si>
-  <si>
     <t>2010.igem.org/Main_Page</t>
   </si>
   <si>
@@ -49,9 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>picture/year/2011</t>
-  </si>
-  <si>
     <t>2011.igem.org/Main_Page</t>
   </si>
   <si>
@@ -59,9 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>picture/year/2012</t>
-  </si>
-  <si>
     <t>2012.igem.org/Main_Page</t>
   </si>
   <si>
@@ -69,9 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>picture/year/2013</t>
-  </si>
-  <si>
     <t>2013.igem.org/Main_Page</t>
   </si>
   <si>
@@ -79,9 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>picture/year/2014</t>
-  </si>
-  <si>
     <t>2014.igem.org/Main_Page</t>
   </si>
   <si>
@@ -89,9 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>picture/year/2015</t>
-  </si>
-  <si>
     <t>2015.igem.org/Main_Page</t>
   </si>
   <si>
@@ -99,9 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>picture/year/2016</t>
-  </si>
-  <si>
     <t>2016.igem.org/Main_Page</t>
   </si>
   <si>
@@ -878,13 +854,41 @@
   </si>
   <si>
     <t>单独搜的时候推荐得这个year的project（按project_score排先后）和这些project的part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.jpg</t>
+  </si>
+  <si>
+    <t>2011.jpg</t>
+  </si>
+  <si>
+    <t>2010.jpg</t>
+  </si>
+  <si>
+    <t>2009.jpg</t>
+  </si>
+  <si>
+    <t>2013.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7519,15 +7523,21 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>380453</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>418553</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2410371" cy="3308938"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7540,7 +7550,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2971253" y="195263"/>
+          <a:off x="3466553" y="186690"/>
           <a:ext cx="2410371" cy="3308938"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7565,7 +7575,13 @@
     <xdr:ext cx="5116843" cy="3409950"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7608,7 +7624,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -7640,7 +7662,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -7922,139 +7950,139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2016</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>268</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2015</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>269</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2014</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2013</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>274</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2012</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2011</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2010</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>3</v>
+        <v>272</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2009</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>0</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -8065,18 +8093,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B1">
         <v>2009</v>
@@ -8103,816 +8131,816 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C2" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D2" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E2" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="F2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="G2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="H2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="I2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D3" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E3" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="F3" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G3" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="H3" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="I3" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C4" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D4" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E4" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F4" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G4" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H4" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="I4" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D5" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E5" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F5" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="G5" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H5" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="I5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C6" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D6" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E6" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F6" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="G6" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="H6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="I6" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="H7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="I7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C8" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D8" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E8" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F8" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G8" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="H8" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="I8" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C9" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D9" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E9" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F9" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G9" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="H9" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="I9" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C10" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E10" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F10" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G10" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="H10" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="I10" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C11" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D11" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E11" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F11" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G11" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="H11" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="I11" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C12" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D12" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F12" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G12" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H12" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="I12" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C13" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D13" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E13" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F13" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G13" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="H13" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="I13" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C14" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D14" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E14" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F14" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G14" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H14" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="I14" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C15" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D15" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E15" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F15" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="H15" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="I15" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C16" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D16" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E16" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F16" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G16" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H16" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="I16" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C17" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D17" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E17" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F17" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G17" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H17" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="I17" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C18" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D18" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E18" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F18" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G18" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="H18" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="I18" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G19" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H19" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="I19" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E20" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F20" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="G20" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="H20" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="I20" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E21" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F21" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G21" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="H21" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="I21" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D22" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F22" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G22" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H22" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="I22" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F23" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I23" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E24" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I24" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E25" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F25" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G25" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H25" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="I25" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E26" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F26" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G26" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H26" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="I26" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G27" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H27" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="I27" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G28" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I28" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E29" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H29" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I29" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H30" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I30" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E31" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H31" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I31" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -8926,19 +8954,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B1">
         <v>2009</v>
@@ -8965,9 +8993,9 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B2">
         <v>47</v>
@@ -8994,9 +9022,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B3">
         <v>19</v>
@@ -9023,9 +9051,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B4">
         <v>24</v>
@@ -9052,9 +9080,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -9081,10 +9109,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B13" s="10">
         <v>2009</v>
@@ -9111,9 +9139,9 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B14" s="7">
         <v>0</v>
@@ -9140,9 +9168,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B15" s="7">
         <v>0</v>
@@ -9169,9 +9197,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B16" s="7">
         <v>0</v>
@@ -9198,9 +9226,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B17" s="7">
         <v>16</v>
@@ -9227,9 +9255,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B18" s="7">
         <v>8</v>
@@ -9256,9 +9284,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B19" s="7">
         <v>0</v>
@@ -9285,9 +9313,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B20" s="7">
         <v>21</v>
@@ -9314,9 +9342,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B21" s="7">
         <v>0</v>
@@ -9343,9 +9371,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B22" s="7">
         <v>15</v>
@@ -9372,9 +9400,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B23" s="7">
         <v>0</v>
@@ -9401,9 +9429,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B24" s="7">
         <v>8</v>
@@ -9430,9 +9458,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B25" s="7">
         <v>14</v>
@@ -9459,9 +9487,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B26" s="7">
         <v>0</v>
@@ -9488,9 +9516,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B27" s="7">
         <v>13</v>
@@ -9517,9 +9545,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B28" s="7">
         <v>7</v>
@@ -9546,9 +9574,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B29" s="4">
         <v>0</v>
@@ -9575,7 +9603,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9584,23 +9612,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/igem2017/sdin/tools/preload/additional/year.xlsx
+++ b/igem2017/sdin/tools/preload/additional/year.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lixia\LinuxHome\Projects\IGEM2017-SYSU.Software\igem2017\sdin\tools\preload\additional\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有谁共鸣\Desktop\igem\数据\高级检索数据\year\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4416" windowHeight="1644" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4418" windowHeight="1643"/>
   </bookViews>
   <sheets>
     <sheet name="year的解释" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="year额外分析" sheetId="3" r:id="rId3"/>
     <sheet name="year推荐project和part" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -858,11 +858,9 @@
   </si>
   <si>
     <t>2016.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2015.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2012.jpg</t>
@@ -888,7 +886,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7523,21 +7521,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>418553</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>389978</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2410371" cy="3308938"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7550,7 +7542,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3466553" y="186690"/>
+          <a:off x="2980778" y="1404938"/>
           <a:ext cx="2410371" cy="3308938"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7575,13 +7567,7 @@
     <xdr:ext cx="5116843" cy="3409950"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7624,13 +7610,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -7662,13 +7642,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -7950,16 +7924,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -7973,7 +7947,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>2016</v>
       </c>
@@ -7987,7 +7961,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2015</v>
       </c>
@@ -8001,7 +7975,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2014</v>
       </c>
@@ -8015,7 +7989,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>2013</v>
       </c>
@@ -8029,7 +8003,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>2012</v>
       </c>
@@ -8043,7 +8017,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>2011</v>
       </c>
@@ -8057,7 +8031,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>2010</v>
       </c>
@@ -8071,7 +8045,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>2009</v>
       </c>
@@ -8093,16 +8067,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>243</v>
       </c>
@@ -8131,7 +8105,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>242</v>
       </c>
@@ -8160,7 +8134,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="13"/>
       <c r="B3" t="s">
         <v>52</v>
@@ -8187,7 +8161,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="13"/>
       <c r="B4" t="s">
         <v>228</v>
@@ -8214,7 +8188,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="13"/>
       <c r="B5" t="s">
         <v>158</v>
@@ -8241,7 +8215,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="13"/>
       <c r="B6" t="s">
         <v>215</v>
@@ -8268,7 +8242,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="13"/>
       <c r="B7" t="s">
         <v>208</v>
@@ -8295,7 +8269,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="13"/>
       <c r="B8" t="s">
         <v>201</v>
@@ -8322,7 +8296,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="13"/>
       <c r="B9" t="s">
         <v>193</v>
@@ -8349,7 +8323,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="13"/>
       <c r="B10" t="s">
         <v>186</v>
@@ -8376,7 +8350,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="13"/>
       <c r="B11" t="s">
         <v>180</v>
@@ -8403,7 +8377,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="13"/>
       <c r="B12" t="s">
         <v>173</v>
@@ -8430,7 +8404,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="13"/>
       <c r="B13" t="s">
         <v>167</v>
@@ -8457,7 +8431,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="13"/>
       <c r="B14" t="s">
         <v>159</v>
@@ -8484,7 +8458,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="13"/>
       <c r="B15" t="s">
         <v>151</v>
@@ -8511,7 +8485,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="13"/>
       <c r="B16" t="s">
         <v>143</v>
@@ -8538,7 +8512,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="13"/>
       <c r="B17" t="s">
         <v>136</v>
@@ -8565,7 +8539,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="13"/>
       <c r="B18" t="s">
         <v>128</v>
@@ -8592,7 +8566,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="13"/>
       <c r="B19" t="s">
         <v>120</v>
@@ -8619,7 +8593,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="13"/>
       <c r="B20" t="s">
         <v>113</v>
@@ -8646,7 +8620,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="13"/>
       <c r="B21" t="s">
         <v>73</v>
@@ -8673,7 +8647,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="13"/>
       <c r="B22" t="s">
         <v>98</v>
@@ -8700,7 +8674,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="13"/>
       <c r="B23" t="s">
         <v>90</v>
@@ -8727,7 +8701,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="13"/>
       <c r="B24" t="s">
         <v>82</v>
@@ -8754,7 +8728,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="13"/>
       <c r="B25" t="s">
         <v>74</v>
@@ -8781,7 +8755,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="13"/>
       <c r="B26" t="s">
         <v>66</v>
@@ -8808,7 +8782,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="13"/>
       <c r="B27" t="s">
         <v>58</v>
@@ -8835,7 +8809,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="13"/>
       <c r="B28" t="s">
         <v>50</v>
@@ -8862,7 +8836,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="13"/>
       <c r="B29" t="s">
         <v>43</v>
@@ -8889,7 +8863,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="13"/>
       <c r="B30" t="s">
         <v>35</v>
@@ -8916,7 +8890,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="13"/>
       <c r="B31" t="s">
         <v>27</v>
@@ -8954,17 +8928,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>265</v>
       </c>
@@ -8993,7 +8967,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>264</v>
       </c>
@@ -9022,7 +8996,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>263</v>
       </c>
@@ -9051,7 +9025,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>262</v>
       </c>
@@ -9080,7 +9054,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>261</v>
       </c>
@@ -9109,8 +9083,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
         <v>260</v>
       </c>
@@ -9139,7 +9113,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="8" t="s">
         <v>259</v>
       </c>
@@ -9168,7 +9142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="8" t="s">
         <v>258</v>
       </c>
@@ -9197,7 +9171,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="8" t="s">
         <v>257</v>
       </c>
@@ -9226,7 +9200,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="8" t="s">
         <v>256</v>
       </c>
@@ -9255,7 +9229,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="8" t="s">
         <v>255</v>
       </c>
@@ -9284,7 +9258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="8" t="s">
         <v>254</v>
       </c>
@@ -9313,7 +9287,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="8" t="s">
         <v>253</v>
       </c>
@@ -9342,7 +9316,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="8" t="s">
         <v>252</v>
       </c>
@@ -9371,7 +9345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="8" t="s">
         <v>251</v>
       </c>
@@ -9400,7 +9374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="8" t="s">
         <v>250</v>
       </c>
@@ -9429,7 +9403,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="8" t="s">
         <v>249</v>
       </c>
@@ -9458,7 +9432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="8" t="s">
         <v>248</v>
       </c>
@@ -9487,7 +9461,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="8" t="s">
         <v>247</v>
       </c>
@@ -9516,7 +9490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="8" t="s">
         <v>246</v>
       </c>
@@ -9545,7 +9519,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="8" t="s">
         <v>245</v>
       </c>
@@ -9574,7 +9548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
         <v>244</v>
       </c>
@@ -9603,7 +9577,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9612,21 +9586,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>267</v>
       </c>
